--- a/artfynd/A 50772-2023 artfynd.xlsx
+++ b/artfynd/A 50772-2023 artfynd.xlsx
@@ -2291,12 +2291,7 @@
         <v>113412255</v>
       </c>
       <c r="B15" t="n">
-        <v>95203</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>97253</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2325,7 +2320,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Dalhagsskogen (Dalhagsskogen), Srm</t>
+          <t>Dalhagsskogen, Dalhagsskogen, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">

--- a/artfynd/A 50772-2023 artfynd.xlsx
+++ b/artfynd/A 50772-2023 artfynd.xlsx
@@ -2291,7 +2291,7 @@
         <v>113412255</v>
       </c>
       <c r="B15" t="n">
-        <v>97253</v>
+        <v>97254</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 50772-2023 artfynd.xlsx
+++ b/artfynd/A 50772-2023 artfynd.xlsx
@@ -2291,7 +2291,7 @@
         <v>113412255</v>
       </c>
       <c r="B15" t="n">
-        <v>97254</v>
+        <v>97255</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
